--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="812">
   <si>
     <t>type</t>
   </si>
@@ -2176,69 +2176,12 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Electricity Consumption Period 1 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 9 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 10 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 1 Modeled</t>
-  </si>
-  <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
     <t>therms</t>
   </si>
   <si>
-    <t>Gas Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 9 Modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2425,64 +2368,7 @@
     <t>calibration_reports.electric_bill_consumption_modeled</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_period_10_consumption_modeled</t>
-  </si>
-  <si>
     <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_period_9_consumption_modeled</t>
   </si>
   <si>
     <t>Add Sys 3 - PSZ-AC Ngrid</t>
@@ -6876,7 +6762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -6946,7 +6832,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -7017,7 +6903,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7028,10 +6914,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7039,10 +6925,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7227,13 +7113,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7257,7 +7143,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7284,7 +7170,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7310,7 +7196,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7325,7 +7211,7 @@
         <v>702</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7358,9 +7244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7518,13 +7404,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7537,16 +7423,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7554,16 +7440,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -7599,7 +7485,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7692,13 +7578,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7720,7 +7606,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="H14" s="31">
         <v>12717</v>
@@ -7760,7 +7646,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7794,7 +7680,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="H17" s="43">
         <v>10</v>
@@ -7816,7 +7702,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7824,10 +7710,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7841,10 +7727,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7858,10 +7744,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7875,10 +7761,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7892,10 +7778,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7909,10 +7795,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7926,10 +7812,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7943,10 +7829,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7960,10 +7846,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7977,10 +7863,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7994,10 +7880,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -8011,10 +7897,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -8028,10 +7914,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -8080,13 +7966,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>814</v>
+        <v>776</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>815</v>
+        <v>777</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>815</v>
+        <v>777</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -8099,10 +7985,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8127,7 +8013,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -8135,10 +8021,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8163,7 +8049,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -8171,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>816</v>
+        <v>778</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8190,7 +8076,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>817</v>
+        <v>779</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8199,7 +8085,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>818</v>
+        <v>780</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8221,7 +8107,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -8278,7 +8164,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,7 +8271,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,7 +8378,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8599,7 +8485,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
@@ -8767,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>76</v>
@@ -8804,7 +8690,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8832,7 +8718,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="62" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8877,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>76</v>
@@ -8914,7 +8800,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8942,7 +8828,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="66" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8987,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>76</v>
@@ -9024,7 +8910,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -9052,7 +8938,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9155,7 +9041,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9183,7 +9069,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="75" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9291,7 +9177,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9557,7 +9443,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>819</v>
+        <v>781</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9586,7 +9472,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -9594,13 +9480,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>820</v>
+        <v>782</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9611,7 +9497,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9640,7 +9526,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -9648,13 +9534,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>823</v>
+        <v>785</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>824</v>
+        <v>786</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9665,7 +9551,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>825</v>
+        <v>787</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9694,7 +9580,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -9739,7 +9625,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>826</v>
+        <v>788</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9748,7 +9634,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9771,7 +9657,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="98" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9779,7 +9665,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9788,7 +9674,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9799,7 +9685,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>829</v>
+        <v>791</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9808,7 +9694,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9819,7 +9705,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>830</v>
+        <v>792</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9828,7 +9714,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9839,7 +9725,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>832</v>
+        <v>794</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9856,7 +9742,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>833</v>
+        <v>795</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9865,7 +9751,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9876,7 +9762,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>834</v>
+        <v>796</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9885,7 +9771,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>827</v>
+        <v>789</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9896,7 +9782,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>835</v>
+        <v>797</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9905,7 +9791,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9919,10 +9805,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>68</v>
@@ -9953,7 +9839,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>845</v>
+        <v>807</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9962,30 +9848,30 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
       </c>
       <c r="I106" s="46"/>
       <c r="J106" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K106" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L106" s="45">
         <v>0</v>
       </c>
       <c r="M106" s="45">
         <f>(K106-J106)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N106" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
@@ -9993,7 +9879,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -10002,30 +9888,30 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>846</v>
+        <v>808</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
       </c>
       <c r="I107" s="46"/>
       <c r="J107" s="45">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K107" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L107" s="45">
         <v>0</v>
       </c>
       <c r="M107" s="45">
         <f>(K107-J107)/6</f>
-        <v>1.6666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N107" s="45">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
@@ -10033,7 +9919,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>848</v>
+        <v>810</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10531,11 +10417,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10760,7 +10646,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>710</v>
@@ -10777,10 +10663,7 @@
       <c r="H8" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
-        <f>SUM(I9:I18)</f>
-        <v>39359</v>
-      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -10791,10 +10674,10 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10808,27 +10691,23 @@
       <c r="H9" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="30">
-        <v>4153</v>
-      </c>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="30">
-        <v>1</v>
-      </c>
+      <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>712</v>
+        <v>802</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E10" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="30" t="b">
@@ -10838,29 +10717,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>3732</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30">
         <v>1</v>
       </c>
-      <c r="L10" s="30"/>
+      <c r="I10" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>713</v>
+        <v>803</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E11" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="30" t="b">
@@ -10870,29 +10744,24 @@
         <v>1</v>
       </c>
       <c r="H11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>3884</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30">
         <v>1</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>714</v>
+        <v>804</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E12" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="30" t="b">
@@ -10902,29 +10771,24 @@
         <v>1</v>
       </c>
       <c r="H12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>3708</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30">
         <v>1</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="I12" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E13" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F13" s="30" t="b">
@@ -10934,627 +10798,35 @@
         <v>1</v>
       </c>
       <c r="H13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>4009</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30">
         <v>1</v>
       </c>
-      <c r="L13" s="30"/>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>716</v>
-      </c>
+      <c r="A14" s="30"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <v>5042</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30">
-        <v>1</v>
-      </c>
-      <c r="L14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>717</v>
-      </c>
+      <c r="A15" s="30"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>4616</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30">
-        <v>1</v>
-      </c>
-      <c r="L15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>718</v>
-      </c>
+      <c r="A16" s="30"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <v>3115</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30">
-        <v>1</v>
-      </c>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>719</v>
-      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>3357</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30">
-        <v>1</v>
-      </c>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>3743</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30">
-        <v>1</v>
-      </c>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <f>SUM(I20:I28)</f>
-        <v>2239</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>721</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30">
-        <v>1038</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30">
-        <v>2</v>
-      </c>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <v>724</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30">
-        <v>2</v>
-      </c>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>725</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="30">
-        <v>297</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30">
-        <v>2</v>
-      </c>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="30">
-        <v>71</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30">
-        <v>2</v>
-      </c>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="30">
-        <v>14</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30">
-        <v>2</v>
-      </c>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="30">
-        <v>1</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30">
-        <v>2</v>
-      </c>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="30">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30">
-        <v>2</v>
-      </c>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>730</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <v>22</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30">
-        <v>2</v>
-      </c>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>731</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
-        <v>72</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30">
-        <v>2</v>
-      </c>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>840</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>841</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>837</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>842</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30" t="s">
-        <v>838</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>843</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20205,13 +19477,13 @@
         <v>574</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="P25" s="30">
         <v>1</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2477,6 +2474,9 @@
   </si>
   <si>
     <t>NationalGrid Office Calibration NSGA 14</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2486,7 +2486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2551,6 +2551,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4482,7 +4487,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4588,6 +4593,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1838">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6732,17 +6738,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6766,17 +6772,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6785,7 +6791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6794,7 +6800,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6805,18 +6811,18 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6827,18 +6833,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6889,7 +6895,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6898,40 +6904,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6942,7 +6948,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6996,11 +7002,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7017,7 +7023,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -7029,7 +7035,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
@@ -7041,7 +7047,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -7053,7 +7059,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -7065,7 +7071,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -7077,7 +7083,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -7089,7 +7095,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -7099,7 +7105,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -7111,39 +7117,39 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7151,15 +7157,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7170,25 +7176,25 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7196,25 +7202,25 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7244,37 +7250,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7309,7 +7315,7 @@
       <c r="X1" s="52"/>
       <c r="Y1" s="52"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7325,7 +7331,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7399,18 +7405,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>713</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>714</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7418,46 +7424,46 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>751</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>752</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>648</v>
@@ -7471,7 +7477,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7496,7 +7502,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7510,7 +7516,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>657</v>
+        <v>811</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7519,7 +7525,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7533,16 +7539,16 @@
         <v>618</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>658</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>659</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>655</v>
@@ -7555,12 +7561,12 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>656</v>
@@ -7573,18 +7579,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7592,33 +7598,35 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="17">
+      <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="H14" s="31">
-        <v>12717</v>
+      <c r="G14" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="H14" s="53">
+        <v>104666</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="43" customFormat="1">
       <c r="B15" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>200</v>
@@ -7646,10 +7654,10 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7663,15 +7671,15 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="43" customFormat="1">
       <c r="B17" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>204</v>
@@ -7680,10 +7688,10 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H17" s="43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="43">
         <v>8</v>
@@ -7702,18 +7710,18 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>721</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>722</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7722,15 +7730,15 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>723</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>724</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7739,15 +7747,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>725</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>726</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7756,15 +7764,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>727</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>728</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7773,15 +7781,15 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>729</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>730</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7790,15 +7798,15 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>731</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>732</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7807,15 +7815,15 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>733</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>734</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7824,15 +7832,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>735</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>736</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7841,15 +7849,15 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>738</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7858,15 +7866,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>739</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>740</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7875,15 +7883,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>741</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>742</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7892,15 +7900,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>743</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>744</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7909,15 +7917,15 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>745</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>746</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7926,18 +7934,18 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -7945,15 +7953,15 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>619</v>
@@ -7961,18 +7969,18 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>776</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>777</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7980,15 +7988,15 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="43" customFormat="1">
       <c r="B34" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>765</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>766</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8013,18 +8021,18 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="43" customFormat="1">
       <c r="B35" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>766</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>767</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>768</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8049,15 +8057,15 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="38" customFormat="1">
       <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8071,12 +8079,12 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="43" customFormat="1">
       <c r="B37" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8085,7 +8093,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8107,15 +8115,15 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
       <c r="A38" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -8129,12 +8137,12 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -8164,15 +8172,15 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -8181,7 +8189,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -8195,12 +8203,12 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="B41" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -8209,20 +8217,20 @@
         <v>618</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="38" customFormat="1">
       <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -8236,12 +8244,12 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -8271,15 +8279,15 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -8288,7 +8296,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -8302,12 +8310,12 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="B45" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -8316,7 +8324,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8324,12 +8332,12 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="38" customFormat="1">
       <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8343,12 +8351,12 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8378,15 +8386,15 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8395,7 +8403,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8409,12 +8417,12 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8423,20 +8431,20 @@
         <v>618</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8450,12 +8458,12 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8485,15 +8493,15 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8502,7 +8510,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8516,12 +8524,12 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8530,26 +8538,26 @@
         <v>618</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8557,90 +8565,90 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8648,12 +8656,12 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" s="49" customFormat="1">
       <c r="A60" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>76</v>
@@ -8685,12 +8693,12 @@
       <c r="X60" s="50"/>
       <c r="Y60" s="50"/>
     </row>
-    <row r="61" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8718,10 +8726,10 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8758,12 +8766,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" s="49" customFormat="1">
       <c r="A64" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>76</v>
@@ -8795,12 +8803,12 @@
       <c r="X64" s="50"/>
       <c r="Y64" s="50"/>
     </row>
-    <row r="65" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8828,10 +8836,10 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8848,7 +8856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8862,18 +8870,18 @@
         <v>62</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" s="49" customFormat="1">
       <c r="A68" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>76</v>
@@ -8905,12 +8913,12 @@
       <c r="X68" s="50"/>
       <c r="Y68" s="50"/>
     </row>
-    <row r="69" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8938,10 +8946,10 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8958,7 +8966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -8972,13 +8980,13 @@
         <v>62</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" s="49" customFormat="1">
       <c r="A72" s="50" t="b">
         <v>1</v>
       </c>
@@ -9015,7 +9023,7 @@
       <c r="X72" s="50"/>
       <c r="Y72" s="50"/>
     </row>
-    <row r="73" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9036,12 +9044,12 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9069,10 +9077,10 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9090,7 +9098,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9108,7 +9116,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9126,7 +9134,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9143,7 +9151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9172,12 +9180,12 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9210,7 +9218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -9236,7 +9244,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -9262,7 +9270,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -9288,7 +9296,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9314,7 +9322,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9340,7 +9348,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9366,7 +9374,7 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="30"/>
       <c r="B87" s="30" t="s">
         <v>21</v>
@@ -9392,7 +9400,7 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" s="50" customFormat="1">
       <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
@@ -9409,7 +9417,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="30"/>
       <c r="B89" s="30" t="s">
         <v>21</v>
@@ -9438,12 +9446,12 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" s="43" customFormat="1">
       <c r="B90" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9472,32 +9480,32 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
+        <v>781</v>
+      </c>
+      <c r="C91" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>783</v>
-      </c>
       <c r="D91" s="50" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" s="43" customFormat="1">
       <c r="B92" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9526,32 +9534,32 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="50" customFormat="1">
       <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>784</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>785</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>786</v>
-      </c>
       <c r="D93" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" s="43" customFormat="1">
       <c r="B94" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9580,10 +9588,10 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="50" customFormat="1">
       <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
@@ -9600,7 +9608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" s="30" customFormat="1">
       <c r="B96" s="30" t="s">
         <v>21</v>
       </c>
@@ -9620,12 +9628,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9634,7 +9642,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9657,15 +9665,15 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9674,18 +9682,18 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9694,18 +9702,18 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9714,18 +9722,18 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="H100" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" s="30" customFormat="1">
+      <c r="B101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>793</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>794</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9737,12 +9745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9751,18 +9759,18 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9771,18 +9779,18 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9791,13 +9799,13 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" s="38" customFormat="1">
       <c r="A105" s="50" t="b">
         <v>1</v>
       </c>
@@ -9805,10 +9813,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>68</v>
@@ -9834,12 +9842,12 @@
       <c r="X105" s="50"/>
       <c r="Y105" s="50"/>
     </row>
-    <row r="106" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9848,7 +9856,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9871,15 +9879,15 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9888,7 +9896,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9911,15 +9919,15 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -9936,467 +9944,467 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -10424,20 +10432,20 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10452,7 +10460,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10487,7 +10495,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10523,7 +10531,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -10552,7 +10560,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -10582,7 +10590,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -10611,7 +10619,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -10640,16 +10648,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10668,16 +10676,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10696,16 +10704,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>64</v>
@@ -10723,16 +10731,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>64</v>
@@ -10750,16 +10758,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>64</v>
@@ -10777,16 +10785,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>64</v>
@@ -10804,25 +10812,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -10847,19 +10855,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10878,7 +10886,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10899,7 +10907,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10922,7 +10930,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10945,7 +10953,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10968,7 +10976,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10991,7 +10999,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11014,7 +11022,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11037,7 +11045,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11060,7 +11068,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11083,7 +11091,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11102,7 +11110,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11123,7 +11131,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11146,7 +11154,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11169,7 +11177,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11192,7 +11200,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11215,7 +11223,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11238,7 +11246,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11261,7 +11269,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11284,7 +11292,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11307,7 +11315,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11326,7 +11334,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11349,7 +11357,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11372,7 +11380,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11395,7 +11403,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11418,7 +11426,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11441,7 +11449,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11464,7 +11472,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11487,7 +11495,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11510,7 +11518,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11533,7 +11541,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11552,7 +11560,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11573,7 +11581,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11596,7 +11604,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11619,7 +11627,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11642,7 +11650,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11665,7 +11673,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11688,7 +11696,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11711,7 +11719,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11734,7 +11742,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11757,7 +11765,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11776,7 +11784,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11797,7 +11805,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11820,7 +11828,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11843,7 +11851,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11866,7 +11874,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11889,7 +11897,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11912,7 +11920,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11935,7 +11943,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11958,7 +11966,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11981,7 +11989,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12000,7 +12008,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12021,7 +12029,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12044,7 +12052,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12067,7 +12075,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12090,7 +12098,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12113,7 +12121,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12136,7 +12144,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12159,7 +12167,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12182,7 +12190,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12205,7 +12213,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12224,7 +12232,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12245,7 +12253,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12270,7 +12278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12293,7 +12301,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12316,7 +12324,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12339,7 +12347,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12362,7 +12370,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12385,7 +12393,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12408,7 +12416,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12431,7 +12439,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12454,7 +12462,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12473,7 +12481,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12494,7 +12502,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12517,7 +12525,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12542,7 +12550,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12565,7 +12573,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12588,7 +12596,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12611,7 +12619,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12634,7 +12642,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12657,7 +12665,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12680,7 +12688,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12703,7 +12711,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12726,7 +12734,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12749,7 +12757,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12772,7 +12780,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12791,7 +12799,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12814,7 +12822,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12837,7 +12845,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12860,7 +12868,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12883,7 +12891,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12906,7 +12914,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12929,7 +12937,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12952,7 +12960,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12975,7 +12983,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12998,7 +13006,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13021,7 +13029,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13040,7 +13048,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13065,7 +13073,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13084,7 +13092,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13105,7 +13113,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13130,7 +13138,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13149,7 +13157,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13172,7 +13180,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13197,7 +13205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13220,7 +13228,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13241,7 +13249,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13260,7 +13268,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13285,7 +13293,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13308,7 +13316,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13331,7 +13339,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13354,7 +13362,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13377,7 +13385,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13400,7 +13408,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13423,7 +13431,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13442,7 +13450,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13465,7 +13473,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13488,7 +13496,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13511,7 +13519,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13530,7 +13538,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13561,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13576,7 +13584,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13599,7 +13607,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13630,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13653,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13668,7 +13676,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13687,7 +13695,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13712,7 +13720,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13735,7 +13743,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13758,7 +13766,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13781,7 +13789,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13804,7 +13812,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13827,7 +13835,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13858,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13873,7 +13881,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13896,7 +13904,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13915,7 +13923,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13940,7 +13948,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13961,7 +13969,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13984,7 +13992,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14007,7 +14015,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14030,7 +14038,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14053,7 +14061,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14076,7 +14084,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14099,7 +14107,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14122,7 +14130,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14145,7 +14153,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14168,7 +14176,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14191,7 +14199,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14214,7 +14222,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14237,7 +14245,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14256,7 +14264,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14279,7 +14287,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14298,7 +14306,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14321,7 +14329,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14344,7 +14352,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14363,7 +14371,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14388,7 +14396,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14411,7 +14419,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14434,7 +14442,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14457,7 +14465,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14480,7 +14488,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14503,7 +14511,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14526,7 +14534,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14557,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14580,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14595,7 +14603,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14614,7 +14622,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14639,7 +14647,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14662,7 +14670,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14685,7 +14693,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14708,7 +14716,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14731,7 +14739,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14754,7 +14762,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14777,7 +14785,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14800,7 +14808,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14823,7 +14831,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14846,7 +14854,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14865,7 +14873,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14888,7 +14896,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14911,7 +14919,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14934,7 +14942,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14957,7 +14965,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14976,7 +14984,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14999,7 +15007,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15022,7 +15030,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15045,7 +15053,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15068,7 +15076,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15087,7 +15095,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15108,7 +15116,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15131,7 +15139,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15150,7 +15158,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15173,7 +15181,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15198,7 +15206,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15219,7 +15227,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15244,7 +15252,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15269,7 +15277,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15288,7 +15296,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15313,7 +15321,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15336,7 +15344,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15359,7 +15367,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15382,7 +15390,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15405,7 +15413,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15428,7 +15436,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15451,7 +15459,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15474,7 +15482,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15497,7 +15505,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15516,7 +15524,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15541,7 +15549,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15564,7 +15572,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15587,7 +15595,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15618,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15633,7 +15641,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15656,7 +15664,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15679,7 +15687,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15702,7 +15710,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15725,7 +15733,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15744,7 +15752,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15765,7 +15773,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15788,7 +15796,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15811,7 +15819,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15834,7 +15842,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15857,7 +15865,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15880,7 +15888,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15903,7 +15911,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15926,7 +15934,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15949,7 +15957,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15972,7 +15980,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15995,7 +16003,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16018,7 +16026,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16041,7 +16049,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16064,7 +16072,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16087,7 +16095,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16110,7 +16118,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16129,7 +16137,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16150,7 +16158,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16173,7 +16181,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16196,7 +16204,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16219,7 +16227,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16242,7 +16250,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16265,7 +16273,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16288,7 +16296,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16311,7 +16319,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16334,7 +16342,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16357,7 +16365,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16380,7 +16388,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16403,7 +16411,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16426,7 +16434,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16449,7 +16457,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16472,7 +16480,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16495,7 +16503,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16514,7 +16522,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16539,7 +16547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16562,7 +16570,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16585,7 +16593,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16608,7 +16616,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16631,7 +16639,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16650,7 +16658,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16675,7 +16683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16698,7 +16706,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16717,7 +16725,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16736,7 +16744,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16755,7 +16763,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16776,7 +16784,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16799,7 +16807,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16822,7 +16830,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16845,7 +16853,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16868,7 +16876,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16891,7 +16899,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16914,7 +16922,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16937,7 +16945,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16960,7 +16968,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16983,7 +16991,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17006,7 +17014,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17025,7 +17033,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17048,7 +17056,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17067,7 +17075,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17092,7 +17100,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17115,7 +17123,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17138,7 +17146,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17161,7 +17169,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17184,7 +17192,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17207,7 +17215,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17230,7 +17238,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17253,7 +17261,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17276,7 +17284,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17299,7 +17307,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17322,7 +17330,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17341,7 +17349,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17364,7 +17372,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17383,7 +17391,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17404,7 +17412,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17423,7 +17431,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17444,7 +17452,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17463,7 +17471,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17484,7 +17492,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17503,7 +17511,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17526,7 +17534,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17545,7 +17553,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17570,7 +17578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17593,7 +17601,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17616,7 +17624,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17639,7 +17647,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17662,7 +17670,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17685,7 +17693,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17708,7 +17716,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17731,7 +17739,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17754,7 +17762,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17773,7 +17781,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17796,7 +17804,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17819,7 +17827,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17842,7 +17850,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17865,7 +17873,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17884,7 +17892,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17907,7 +17915,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17930,7 +17938,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17955,7 +17963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17974,7 +17982,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17999,7 +18007,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18022,7 +18030,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18041,7 +18049,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18062,7 +18070,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18083,7 +18091,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18106,7 +18114,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18125,7 +18133,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18144,7 +18152,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18169,7 +18177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18194,7 +18202,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18208,7 +18216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18231,7 +18239,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18251,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18271,7 +18279,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18291,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18308,7 +18316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18331,7 +18339,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18354,7 +18362,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18368,7 +18376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18391,7 +18399,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18414,7 +18422,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18434,7 +18442,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18454,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18471,7 +18479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18497,7 +18505,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18526,7 +18534,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18565,7 +18573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18579,7 +18587,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18599,7 +18607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18613,7 +18621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18633,7 +18641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18653,7 +18661,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18673,7 +18681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18693,7 +18701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18713,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18733,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18753,7 +18761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18773,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18793,7 +18801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18807,7 +18815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18827,7 +18835,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18847,7 +18855,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18863,7 +18871,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18889,7 +18897,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18930,7 +18938,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18944,7 +18952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18964,7 +18972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18978,7 +18986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19017,17 +19025,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -19038,7 +19046,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -19052,7 +19060,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -19066,7 +19074,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -19080,7 +19088,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -19094,7 +19102,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -19108,7 +19116,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -19122,7 +19130,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -19136,7 +19144,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -19150,7 +19158,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -19164,7 +19172,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -19178,7 +19186,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -19189,8 +19197,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -19216,7 +19224,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19257,7 +19265,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19298,7 +19306,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19330,7 +19338,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19362,7 +19370,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19391,7 +19399,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19423,7 +19431,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19443,9 +19451,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -19466,7 +19474,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19477,16 +19485,16 @@
         <v>574</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P25" s="30">
         <v>1</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19494,7 +19502,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2140,12 +2140,6 @@
     <t>End date</t>
   </si>
   <si>
-    <t>2013-12-21</t>
-  </si>
-  <si>
-    <t>2013-01-21</t>
-  </si>
-  <si>
     <t>calibration_data</t>
   </si>
   <si>
@@ -2477,6 +2471,12 @@
   </si>
   <si>
     <t>DOE Ref 1980-2004</t>
+  </si>
+  <si>
+    <t>2013-01-10</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
 </sst>
 </file>
@@ -2486,7 +2486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4590,10 +4590,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1838">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6738,17 +6738,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6772,12 +6772,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
@@ -6811,7 +6811,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6833,18 +6833,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6920,10 +6920,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6931,10 +6931,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6948,7 +6948,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7119,13 +7119,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7144,12 +7144,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7162,10 +7162,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7211,13 +7211,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7251,33 +7251,33 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18">
@@ -7306,16 +7306,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7410,13 +7410,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7429,16 +7429,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7446,16 +7446,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7491,7 +7491,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7516,7 +7516,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7584,13 +7584,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7598,7 +7598,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -7614,9 +7614,9 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="H14" s="53">
+        <v>744</v>
+      </c>
+      <c r="H14" s="52">
         <v>104666</v>
       </c>
       <c r="I14" s="31"/>
@@ -7654,7 +7654,7 @@
         <v>0.1</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7688,7 +7688,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H17" s="43">
         <v>12</v>
@@ -7710,7 +7710,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7718,10 +7718,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7735,10 +7735,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7752,10 +7752,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7769,10 +7769,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7786,10 +7786,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7803,10 +7803,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7820,10 +7820,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7837,10 +7837,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7854,10 +7854,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7871,10 +7871,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7888,10 +7888,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7905,10 +7905,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7922,10 +7922,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7974,13 +7974,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7993,10 +7993,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8021,7 +8021,7 @@
         <v>0.01</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -8029,10 +8029,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8057,7 +8057,7 @@
         <v>0.01</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8084,7 +8084,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8093,7 +8093,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -8579,7 +8579,7 @@
         <v>618</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8597,7 +8597,7 @@
         <v>618</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8615,7 +8615,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>700</v>
+        <v>810</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8633,7 +8633,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>699</v>
+        <v>811</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8642,13 +8642,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C60" s="50" t="s">
         <v>76</v>
@@ -8698,7 +8698,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8726,7 +8726,7 @@
         <v>0.01</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:25" s="30" customFormat="1">
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C64" s="50" t="s">
         <v>76</v>
@@ -8808,7 +8808,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8836,7 +8836,7 @@
         <v>0.01</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66" spans="1:25" s="30" customFormat="1">
@@ -8881,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>76</v>
@@ -8918,7 +8918,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8946,7 +8946,7 @@
         <v>0.01</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="1:25" s="30" customFormat="1">
@@ -9049,7 +9049,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -9077,7 +9077,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="75" spans="1:25" s="30" customFormat="1">
@@ -9185,7 +9185,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9451,7 +9451,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9480,7 +9480,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
@@ -9488,13 +9488,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9505,7 +9505,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9534,7 +9534,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1">
@@ -9542,13 +9542,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9559,7 +9559,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9588,7 +9588,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1">
@@ -9633,7 +9633,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9642,7 +9642,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:25" s="30" customFormat="1">
@@ -9673,7 +9673,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9682,7 +9682,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9693,7 +9693,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9702,7 +9702,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9722,7 +9722,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9750,7 +9750,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9759,7 +9759,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9770,7 +9770,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9779,7 +9779,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9799,7 +9799,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9813,10 +9813,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D105" s="50" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E105" s="50" t="s">
         <v>68</v>
@@ -9847,7 +9847,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9856,7 +9856,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9879,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="107" spans="1:25" s="43" customFormat="1">
@@ -9887,7 +9887,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9896,7 +9896,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9919,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -9927,7 +9927,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10432,17 +10432,17 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
@@ -10460,7 +10460,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10650,14 +10650,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -10678,14 +10678,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -10706,14 +10706,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>64</v>
@@ -10733,14 +10733,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>64</v>
@@ -10760,14 +10760,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>64</v>
@@ -10787,14 +10787,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>64</v>
@@ -10855,19 +10855,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10886,7 +10886,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10907,7 +10907,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11110,7 +11110,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11131,7 +11131,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11581,7 +11581,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11673,7 +11673,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11696,7 +11696,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11742,7 +11742,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11784,7 +11784,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11805,7 +11805,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11828,7 +11828,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12029,7 +12029,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12098,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12167,7 +12167,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12253,7 +12253,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12278,7 +12278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12347,7 +12347,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12481,7 +12481,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12502,7 +12502,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12550,7 +12550,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12799,7 +12799,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13048,7 +13048,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13073,7 +13073,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13092,7 +13092,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13113,7 +13113,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13138,7 +13138,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13157,7 +13157,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13205,7 +13205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13249,7 +13249,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13268,7 +13268,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13293,7 +13293,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13450,7 +13450,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13538,7 +13538,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13695,7 +13695,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13720,7 +13720,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13858,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13904,7 +13904,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13948,7 +13948,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13969,7 +13969,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14084,7 +14084,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14176,7 +14176,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14222,7 +14222,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14264,7 +14264,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14371,7 +14371,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14396,7 +14396,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14580,7 +14580,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14622,7 +14622,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14647,7 +14647,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14762,7 +14762,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14854,7 +14854,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14873,7 +14873,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14984,7 +14984,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15095,7 +15095,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15116,7 +15116,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15158,7 +15158,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15206,7 +15206,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15227,7 +15227,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15252,7 +15252,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15277,7 +15277,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15296,7 +15296,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15321,7 +15321,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15436,7 +15436,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15505,7 +15505,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15524,7 +15524,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15549,7 +15549,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15618,7 +15618,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15710,7 +15710,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15752,7 +15752,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15773,7 +15773,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15796,7 +15796,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15888,7 +15888,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15957,7 +15957,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16026,7 +16026,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16095,7 +16095,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16137,7 +16137,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16158,7 +16158,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16250,7 +16250,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16296,7 +16296,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16319,7 +16319,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16342,7 +16342,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16480,7 +16480,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16522,7 +16522,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16547,7 +16547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16658,7 +16658,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16683,7 +16683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16725,7 +16725,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16744,7 +16744,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16763,7 +16763,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16784,7 +16784,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16830,7 +16830,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16899,7 +16899,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16922,7 +16922,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16968,7 +16968,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17014,7 +17014,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17033,7 +17033,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17075,7 +17075,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17100,7 +17100,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17123,7 +17123,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17146,7 +17146,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17215,7 +17215,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17261,7 +17261,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17307,7 +17307,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17349,7 +17349,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17372,7 +17372,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17391,7 +17391,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17412,7 +17412,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17431,7 +17431,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17452,7 +17452,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17471,7 +17471,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17492,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17511,7 +17511,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17534,7 +17534,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17553,7 +17553,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17578,7 +17578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17624,7 +17624,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17670,7 +17670,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17762,7 +17762,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17781,7 +17781,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17804,7 +17804,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17827,7 +17827,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17850,7 +17850,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17892,7 +17892,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17963,7 +17963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17982,7 +17982,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18007,7 +18007,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18030,7 +18030,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18049,7 +18049,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18070,7 +18070,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18091,7 +18091,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18114,7 +18114,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18133,7 +18133,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18152,7 +18152,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18177,7 +18177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18534,7 +18534,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18897,7 +18897,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19025,14 +19025,14 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -19485,13 +19485,13 @@
         <v>574</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="P25" s="30">
         <v>1</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:17">

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -7250,9 +7250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57:H58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -7651,7 +7651,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="N15" s="43">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>754</v>
@@ -7707,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="43">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" s="51" t="s">
         <v>754</v>
@@ -8018,7 +8018,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="N34" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q34" s="43" t="s">
         <v>754</v>
@@ -8054,7 +8054,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="N35" s="43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q35" s="43" t="s">
         <v>754</v>
@@ -8417,7 +8417,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:17">
       <c r="B49" s="31" t="s">
         <v>21</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:25" s="38" customFormat="1">
+    <row r="50" spans="1:17" s="38" customFormat="1">
       <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
@@ -8458,7 +8458,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8524,7 +8524,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:17">
       <c r="B53" s="31" t="s">
         <v>21</v>
       </c>
@@ -8546,7 +8546,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:25" s="38" customFormat="1">
+    <row r="54" spans="1:17" s="38" customFormat="1">
       <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
@@ -8565,7 +8565,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:17">
       <c r="B58" s="31" t="s">
         <v>21</v>
       </c>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:25" s="38" customFormat="1">
+    <row r="59" spans="1:17" s="38" customFormat="1">
       <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
@@ -8656,44 +8656,24 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:25" s="49" customFormat="1">
-      <c r="A60" s="50" t="b">
+    <row r="60" spans="1:17" s="49" customFormat="1">
+      <c r="A60" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="49" t="s">
         <v>752</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="50" t="s">
+      <c r="D60" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="50"/>
-      <c r="O60" s="50"/>
-      <c r="P60" s="50"/>
-      <c r="Q60" s="50"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="50"/>
-      <c r="X60" s="50"/>
-      <c r="Y60" s="50"/>
-    </row>
-    <row r="61" spans="1:25" s="43" customFormat="1">
+    </row>
+    <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
@@ -8723,13 +8703,13 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N61" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q61" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="30" customFormat="1">
+    <row r="62" spans="1:17" s="30" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8746,7 +8726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="30" customFormat="1">
+    <row r="63" spans="1:17" s="30" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
@@ -8766,44 +8746,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="49" customFormat="1">
-      <c r="A64" s="50" t="b">
+    <row r="64" spans="1:17" s="49" customFormat="1">
+      <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="50" t="s">
+      <c r="B64" s="49" t="s">
         <v>755</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="50"/>
-      <c r="Y64" s="50"/>
-    </row>
-    <row r="65" spans="1:25" s="43" customFormat="1">
+    </row>
+    <row r="65" spans="1:17" s="43" customFormat="1">
       <c r="B65" s="43" t="s">
         <v>22</v>
       </c>
@@ -8833,13 +8793,13 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N65" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q65" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="30" customFormat="1">
+    <row r="66" spans="1:17" s="30" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8856,7 +8816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="30" customFormat="1">
+    <row r="67" spans="1:17" s="30" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>21</v>
       </c>
@@ -8876,44 +8836,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:25" s="49" customFormat="1">
-      <c r="A68" s="50" t="b">
+    <row r="68" spans="1:17" s="49" customFormat="1">
+      <c r="A68" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="49" t="s">
         <v>757</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="50"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
-      <c r="W68" s="50"/>
-      <c r="X68" s="50"/>
-      <c r="Y68" s="50"/>
-    </row>
-    <row r="69" spans="1:25" s="43" customFormat="1">
+    </row>
+    <row r="69" spans="1:17" s="43" customFormat="1">
       <c r="B69" s="43" t="s">
         <v>22</v>
       </c>
@@ -8943,13 +8883,13 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N69" s="43">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q69" s="43" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:25" s="30" customFormat="1">
+    <row r="70" spans="1:17" s="30" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8966,7 +8906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="30" customFormat="1">
+    <row r="71" spans="1:17" s="30" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>21</v>
       </c>
@@ -8986,44 +8926,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="49" customFormat="1">
-      <c r="A72" s="50" t="b">
+    <row r="72" spans="1:17" s="49" customFormat="1">
+      <c r="A72" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
-      <c r="R72" s="50"/>
-      <c r="S72" s="50"/>
-      <c r="T72" s="50"/>
-      <c r="U72" s="50"/>
-      <c r="V72" s="50"/>
-      <c r="W72" s="50"/>
-      <c r="X72" s="50"/>
-      <c r="Y72" s="50"/>
-    </row>
-    <row r="73" spans="1:25" s="30" customFormat="1">
+    </row>
+    <row r="73" spans="1:17" s="30" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>21</v>
       </c>
@@ -9044,7 +8964,7 @@
       </c>
       <c r="O73" s="31"/>
     </row>
-    <row r="74" spans="1:25" s="43" customFormat="1">
+    <row r="74" spans="1:17" s="43" customFormat="1">
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -9080,7 +9000,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="75" spans="1:25" s="30" customFormat="1">
+    <row r="75" spans="1:17" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -9098,7 +9018,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:25" s="30" customFormat="1">
+    <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -9116,7 +9036,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:25" s="30" customFormat="1">
+    <row r="77" spans="1:17" s="30" customFormat="1">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
@@ -9134,7 +9054,7 @@
       </c>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" spans="1:25" s="50" customFormat="1">
+    <row r="78" spans="1:17" s="50" customFormat="1">
       <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
@@ -9151,7 +9071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:17">
       <c r="A79" s="30"/>
       <c r="B79" s="30" t="s">
         <v>21</v>
@@ -9180,7 +9100,7 @@
       <c r="N79" s="3"/>
       <c r="P79" s="40"/>
     </row>
-    <row r="80" spans="1:25" s="43" customFormat="1">
+    <row r="80" spans="1:17" s="43" customFormat="1">
       <c r="B80" s="43" t="s">
         <v>22</v>
       </c>
@@ -9628,7 +9548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:25" s="43" customFormat="1">
+    <row r="97" spans="1:17" s="43" customFormat="1">
       <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
@@ -9668,7 +9588,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="98" spans="1:25" s="30" customFormat="1">
+    <row r="98" spans="1:17" s="30" customFormat="1">
       <c r="B98" s="30" t="s">
         <v>21</v>
       </c>
@@ -9688,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="30" customFormat="1">
+    <row r="99" spans="1:17" s="30" customFormat="1">
       <c r="B99" s="30" t="s">
         <v>21</v>
       </c>
@@ -9708,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" s="30" customFormat="1">
+    <row r="100" spans="1:17" s="30" customFormat="1">
       <c r="B100" s="30" t="s">
         <v>21</v>
       </c>
@@ -9728,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" s="30" customFormat="1">
+    <row r="101" spans="1:17" s="30" customFormat="1">
       <c r="B101" s="30" t="s">
         <v>21</v>
       </c>
@@ -9745,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="30" customFormat="1">
+    <row r="102" spans="1:17" s="30" customFormat="1">
       <c r="B102" s="30" t="s">
         <v>21</v>
       </c>
@@ -9765,7 +9685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:25" s="30" customFormat="1">
+    <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="B103" s="30" t="s">
         <v>21</v>
       </c>
@@ -9785,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" s="30" customFormat="1">
+    <row r="104" spans="1:17" s="30" customFormat="1">
       <c r="B104" s="30" t="s">
         <v>21</v>
       </c>
@@ -9805,44 +9725,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:25" s="38" customFormat="1">
-      <c r="A105" s="50" t="b">
+    <row r="105" spans="1:17" s="38" customFormat="1">
+      <c r="A105" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="50" t="s">
+      <c r="B105" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="38" t="s">
         <v>803</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="38" t="s">
         <v>803</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="50"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="50"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
-      <c r="S105" s="50"/>
-      <c r="T105" s="50"/>
-      <c r="U105" s="50"/>
-      <c r="V105" s="50"/>
-      <c r="W105" s="50"/>
-      <c r="X105" s="50"/>
-      <c r="Y105" s="50"/>
-    </row>
-    <row r="106" spans="1:25" s="43" customFormat="1">
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+    </row>
+    <row r="106" spans="1:17" s="43" customFormat="1">
       <c r="B106" s="43" t="s">
         <v>22</v>
       </c>
@@ -9882,7 +9784,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="107" spans="1:25" s="43" customFormat="1">
+    <row r="107" spans="1:17" s="43" customFormat="1">
       <c r="B107" s="43" t="s">
         <v>22</v>
       </c>
@@ -9922,7 +9824,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="108" spans="1:25">
+    <row r="108" spans="1:17">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
@@ -9944,19 +9846,19 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:25">
+    <row r="109" spans="1:17">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="1:25">
+    <row r="110" spans="1:17">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="1:25">
+    <row r="111" spans="1:17">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="1:25">
+    <row r="112" spans="1:17">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2179,9 +2179,6 @@
     <t>ChangeBuildingLocation</t>
   </si>
   <si>
-    <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
-  </si>
-  <si>
     <t>weather_file_name</t>
   </si>
   <si>
@@ -2477,6 +2474,9 @@
   </si>
   <si>
     <t>2013-12-12</t>
+  </si>
+  <si>
+    <t>SPtMasterTable_15084_2013_amy.epw</t>
   </si>
 </sst>
 </file>
@@ -6738,17 +6738,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6772,14 +6772,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6811,7 +6811,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6833,18 +6833,18 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6920,10 +6920,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6931,10 +6931,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6948,7 +6948,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7119,13 +7119,13 @@
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="A32" s="31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B32" s="30">
         <v>1</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D32" s="35"/>
     </row>
@@ -7144,12 +7144,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7165,7 +7165,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7217,7 +7217,7 @@
         <v>699</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7251,36 +7251,36 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD108"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7315,7 +7315,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7429,16 +7429,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>748</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>749</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7446,16 +7446,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>712</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7491,7 +7491,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7516,7 +7516,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7584,13 +7584,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7598,7 +7598,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17.399999999999999">
+    <row r="14" spans="1:25" ht="18">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -7614,7 +7614,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H14" s="52">
         <v>104666</v>
@@ -7654,7 +7654,7 @@
         <v>0.25</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="30" customFormat="1">
@@ -7688,7 +7688,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H17" s="43">
         <v>12</v>
@@ -7710,7 +7710,7 @@
         <v>0.5</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1">
@@ -7718,10 +7718,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>718</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>719</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7735,10 +7735,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>720</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>721</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7752,10 +7752,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>722</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>723</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7769,10 +7769,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>724</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>725</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7786,10 +7786,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>726</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>727</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7803,10 +7803,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>728</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>729</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7820,10 +7820,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>730</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>731</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7837,10 +7837,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>732</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>733</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7854,10 +7854,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>734</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>735</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7871,10 +7871,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>736</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>737</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7888,10 +7888,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7905,10 +7905,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7922,10 +7922,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7974,13 +7974,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>773</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>774</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7993,10 +7993,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="43" t="s">
+        <v>761</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>762</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>763</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>64</v>
@@ -8021,7 +8021,7 @@
         <v>0.05</v>
       </c>
       <c r="Q34" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="43" customFormat="1">
@@ -8029,10 +8029,10 @@
         <v>22</v>
       </c>
       <c r="D35" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>764</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>765</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>64</v>
@@ -8057,7 +8057,7 @@
         <v>0.05</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="38" customFormat="1">
@@ -8065,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -8084,7 +8084,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>75</v>
@@ -8093,7 +8093,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H37" s="43">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="38" customFormat="1">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="P39" s="40"/>
       <c r="Q39" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="P47" s="40"/>
       <c r="Q47" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="P51" s="40"/>
       <c r="Q51" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -8615,7 +8615,7 @@
         <v>618</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8633,7 +8633,7 @@
         <v>618</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8661,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C60" s="49" t="s">
         <v>76</v>
@@ -8678,7 +8678,7 @@
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>77</v>
@@ -8706,7 +8706,7 @@
         <v>0.1</v>
       </c>
       <c r="Q61" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="30" customFormat="1">
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>76</v>
@@ -8768,7 +8768,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E65" s="43" t="s">
         <v>77</v>
@@ -8796,7 +8796,7 @@
         <v>0.1</v>
       </c>
       <c r="Q65" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C68" s="49" t="s">
         <v>76</v>
@@ -8858,7 +8858,7 @@
         <v>22</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E69" s="43" t="s">
         <v>77</v>
@@ -8886,7 +8886,7 @@
         <v>0.1</v>
       </c>
       <c r="Q69" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -8969,7 +8969,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E74" s="43" t="s">
         <v>70</v>
@@ -8997,7 +8997,7 @@
         <v>2.5</v>
       </c>
       <c r="Q74" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="30" customFormat="1">
@@ -9105,7 +9105,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>46</v>
@@ -9371,7 +9371,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E90" s="43" t="s">
         <v>330</v>
@@ -9400,7 +9400,7 @@
         <v>2.5</v>
       </c>
       <c r="Q90" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
@@ -9408,13 +9408,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
+        <v>778</v>
+      </c>
+      <c r="C91" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>780</v>
-      </c>
       <c r="D91" s="50" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
@@ -9425,7 +9425,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>258</v>
@@ -9454,7 +9454,7 @@
         <v>2.5</v>
       </c>
       <c r="Q92" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="50" customFormat="1">
@@ -9462,13 +9462,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="50" t="s">
+        <v>781</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>783</v>
-      </c>
       <c r="D93" s="50" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>68</v>
@@ -9479,7 +9479,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>258</v>
@@ -9508,7 +9508,7 @@
         <v>2.5</v>
       </c>
       <c r="Q94" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="50" customFormat="1">
@@ -9553,7 +9553,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>288</v>
@@ -9562,7 +9562,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="43" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H97" s="43">
         <v>0</v>
@@ -9585,7 +9585,7 @@
         <v>2.5</v>
       </c>
       <c r="Q97" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="30" customFormat="1">
@@ -9593,7 +9593,7 @@
         <v>21</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>48</v>
@@ -9602,7 +9602,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H98" s="30">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>50</v>
@@ -9622,7 +9622,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H99" s="30">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         <v>21</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>52</v>
@@ -9642,7 +9642,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H100" s="30">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>54</v>
@@ -9670,7 +9670,7 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E102" s="30" t="s">
         <v>56</v>
@@ -9679,7 +9679,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H102" s="30">
         <v>15</v>
@@ -9690,7 +9690,7 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>58</v>
@@ -9699,7 +9699,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E104" s="30" t="s">
         <v>60</v>
@@ -9719,7 +9719,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9733,10 +9733,10 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>68</v>
@@ -9749,7 +9749,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E106" s="43" t="s">
         <v>190</v>
@@ -9758,7 +9758,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="43" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H106" s="43">
         <v>1</v>
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="Q106" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="43" customFormat="1">
@@ -9789,7 +9789,7 @@
         <v>22</v>
       </c>
       <c r="D107" s="43" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E107" s="43" t="s">
         <v>192</v>
@@ -9798,7 +9798,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H107" s="43">
         <v>-1</v>
@@ -9821,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="Q107" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -9829,7 +9829,7 @@
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>194</v>
@@ -10334,20 +10334,20 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10362,7 +10362,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>707</v>
@@ -10584,7 +10584,7 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>709</v>
@@ -10608,14 +10608,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>64</v>
@@ -10635,14 +10635,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>64</v>
@@ -10662,14 +10662,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>64</v>
@@ -10689,14 +10689,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>64</v>
@@ -10757,19 +10757,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10809,7 +10809,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11012,7 +11012,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11033,7 +11033,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11483,7 +11483,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11552,7 +11552,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11598,7 +11598,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11667,7 +11667,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11707,7 +11707,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11910,7 +11910,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11931,7 +11931,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11954,7 +11954,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12155,7 +12155,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12180,7 +12180,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12203,7 +12203,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12318,7 +12318,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12383,7 +12383,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12404,7 +12404,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12452,7 +12452,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12636,7 +12636,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12659,7 +12659,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12701,7 +12701,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12747,7 +12747,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12770,7 +12770,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12950,7 +12950,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12975,7 +12975,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12994,7 +12994,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13015,7 +13015,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13040,7 +13040,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13082,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13107,7 +13107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13151,7 +13151,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13170,7 +13170,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13195,7 +13195,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13218,7 +13218,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13287,7 +13287,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13352,7 +13352,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13440,7 +13440,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13555,7 +13555,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13578,7 +13578,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13622,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13825,7 +13825,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13850,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13871,7 +13871,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13963,7 +13963,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14147,7 +14147,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14208,7 +14208,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14273,7 +14273,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14298,7 +14298,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14390,7 +14390,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14436,7 +14436,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14524,7 +14524,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14549,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14641,7 +14641,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14664,7 +14664,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14775,7 +14775,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14798,7 +14798,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14844,7 +14844,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14886,7 +14886,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14997,7 +14997,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15018,7 +15018,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15060,7 +15060,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15108,7 +15108,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15129,7 +15129,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15154,7 +15154,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15179,7 +15179,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15223,7 +15223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15246,7 +15246,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15315,7 +15315,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15451,7 +15451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15474,7 +15474,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15497,7 +15497,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15654,7 +15654,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15675,7 +15675,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15721,7 +15721,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15767,7 +15767,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15813,7 +15813,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16039,7 +16039,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16060,7 +16060,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16267,7 +16267,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16290,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16336,7 +16336,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16405,7 +16405,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16424,7 +16424,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16449,7 +16449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16560,7 +16560,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16585,7 +16585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16627,7 +16627,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16646,7 +16646,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16665,7 +16665,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16686,7 +16686,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16801,7 +16801,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6">
+    <row r="273" spans="1:9" ht="15.75">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16916,7 +16916,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6">
+    <row r="274" spans="1:9" ht="15.75">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16935,7 +16935,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6">
+    <row r="275" spans="1:9" ht="15.75">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6">
+    <row r="276" spans="1:9" ht="15.75">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16977,7 +16977,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6">
+    <row r="277" spans="1:9" ht="15.75">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17002,7 +17002,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6">
+    <row r="278" spans="1:9" ht="15.75">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6">
+    <row r="279" spans="1:9" ht="15.75">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6">
+    <row r="280" spans="1:9" ht="15.75">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6">
+    <row r="281" spans="1:9" ht="15.75">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6">
+    <row r="282" spans="1:9" ht="15.75">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6">
+    <row r="283" spans="1:9" ht="15.75">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17140,7 +17140,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6">
+    <row r="284" spans="1:9" ht="15.75">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17163,7 +17163,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6">
+    <row r="285" spans="1:9" ht="15.75">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17186,7 +17186,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6">
+    <row r="286" spans="1:9" ht="15.75">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17209,7 +17209,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6">
+    <row r="287" spans="1:9" ht="15.75">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6">
+    <row r="288" spans="1:9" ht="15.75">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17251,7 +17251,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6">
+    <row r="289" spans="1:9" ht="15.75">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6">
+    <row r="290" spans="1:9" ht="15.75">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17293,7 +17293,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6">
+    <row r="291" spans="1:9" ht="15.75">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17314,7 +17314,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6">
+    <row r="292" spans="1:9" ht="15.75">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17333,7 +17333,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6">
+    <row r="293" spans="1:9" ht="15.75">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17354,7 +17354,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17373,7 +17373,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17394,7 +17394,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17413,7 +17413,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17455,7 +17455,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6">
+    <row r="299" spans="1:9" ht="15.75">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17480,7 +17480,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6">
+    <row r="300" spans="1:9" ht="15.75">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17503,7 +17503,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6">
+    <row r="301" spans="1:9" ht="15.75">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17526,7 +17526,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6">
+    <row r="302" spans="1:9" ht="15.75">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17549,7 +17549,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6">
+    <row r="303" spans="1:9" ht="15.75">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6">
+    <row r="304" spans="1:9" ht="15.75">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6">
+    <row r="305" spans="1:9" ht="15.75">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17618,7 +17618,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6">
+    <row r="306" spans="1:9" ht="15.75">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6">
+    <row r="307" spans="1:9" ht="15.75">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17664,7 +17664,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6">
+    <row r="308" spans="1:9" ht="15.75">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17683,7 +17683,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6">
+    <row r="309" spans="1:9" ht="15.75">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6">
+    <row r="310" spans="1:9" ht="15.75">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6">
+    <row r="311" spans="1:9" ht="15.75">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17752,7 +17752,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6">
+    <row r="312" spans="1:9" ht="15.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6">
+    <row r="313" spans="1:9" ht="15.75">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17794,7 +17794,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6">
+    <row r="314" spans="1:9" ht="15.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6">
+    <row r="315" spans="1:9" ht="15.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6">
+    <row r="316" spans="1:9" ht="15.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17865,7 +17865,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6">
+    <row r="317" spans="1:9" ht="15.75">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17884,7 +17884,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6">
+    <row r="318" spans="1:9" ht="15.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17909,7 +17909,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6">
+    <row r="319" spans="1:9" ht="15.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6">
+    <row r="320" spans="1:9" ht="15.75">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17951,7 +17951,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6">
+    <row r="321" spans="1:9" ht="15.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17972,7 +17972,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6">
+    <row r="322" spans="1:9" ht="15.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17993,7 +17993,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6">
+    <row r="323" spans="1:9" ht="15.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18016,7 +18016,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6">
+    <row r="324" spans="1:9" ht="15.75">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18035,7 +18035,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6">
+    <row r="325" spans="1:9" ht="15.75">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18054,7 +18054,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6">
+    <row r="326" spans="1:9" ht="15.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18079,7 +18079,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6">
+    <row r="327" spans="1:9" ht="15.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18436,7 +18436,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18799,7 +18799,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18927,14 +18927,14 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -19387,13 +19387,13 @@
         <v>574</v>
       </c>
       <c r="O25" s="31" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P25" s="30">
         <v>1</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:17">

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -2476,7 +2476,7 @@
     <t>2013-12-12</t>
   </si>
   <si>
-    <t>SPtMasterTable_15084_2013_amy.epw</t>
+    <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
   </si>
 </sst>
 </file>
@@ -6769,7 +6769,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -7028,7 +7028,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="30">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>579</v>
@@ -7040,7 +7040,7 @@
         <v>564</v>
       </c>
       <c r="B25" s="30">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>578</v>
@@ -7250,9 +7250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -2476,7 +2476,7 @@
     <t>2013-12-12</t>
   </si>
   <si>
-    <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
+    <t>SPtMasterTable_15084_2013_amy.epw</t>
   </si>
 </sst>
 </file>
@@ -6768,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -7252,7 +7252,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$154</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="820">
   <si>
     <t>type</t>
   </si>
@@ -2477,6 +2477,30 @@
   </si>
   <si>
     <t>SPtMasterTable_15084_2013_amy.epw</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -6768,7 +6792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -7248,11 +7272,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8642,161 +8666,165 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>704</v>
+        <v>812</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>703</v>
+        <v>813</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>703</v>
+        <v>813</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
-      <c r="A60" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>751</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>68</v>
-      </c>
+    <row r="60" spans="1:17">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>752</v>
+        <v>817</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>77</v>
+        <v>818</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>64</v>
+        <v>619</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>819</v>
       </c>
       <c r="H61" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J61" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L61" s="43">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="45">
+        <v>3</v>
+      </c>
+      <c r="L61" s="45">
+        <v>1</v>
       </c>
       <c r="M61" s="43">
-        <f>(K61+J61)/6</f>
-        <v>0.14166666666666669</v>
+        <f>(K61-J61)/6</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N61" s="43">
-        <v>0.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="P61" s="47"/>
       <c r="Q61" s="43" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="49" customFormat="1">
+      <c r="A63" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>751</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="43" customFormat="1">
+      <c r="B64" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>752</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J64" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K64" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="43">
+        <f>(K64+J64)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N64" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H65" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
-      <c r="A64" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
-      <c r="B65" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>755</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J65" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M65" s="43">
-        <f>(K65+J65)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N65" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8804,89 +8832,89 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="49" customFormat="1">
+      <c r="A67" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>754</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="43" customFormat="1">
+      <c r="B68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K68" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M68" s="43">
+        <f>(K68+J68)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1">
+      <c r="B69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
-      <c r="A68" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
-      <c r="B69" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>757</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J69" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K69" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M69" s="43">
-        <f>(K69+J69)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N69" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q69" s="43" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -8894,53 +8922,72 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="49" customFormat="1">
+      <c r="A71" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1">
+      <c r="B72" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
-      <c r="A72" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>68</v>
+      <c r="H72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="43">
+        <f>(K72+J72)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -8948,221 +8995,182 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
-      <c r="B74" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>758</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="43">
-        <v>0</v>
-      </c>
-      <c r="J74" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K74" s="45">
-        <v>100</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0</v>
-      </c>
-      <c r="M74" s="45">
-        <f>(K74-J74)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N74" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
+      <c r="H74" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="49" customFormat="1">
+      <c r="A75" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="43" customFormat="1">
+      <c r="B77" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="43">
+        <v>0</v>
+      </c>
+      <c r="J77" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K77" s="45">
+        <v>100</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0</v>
+      </c>
+      <c r="M77" s="45">
+        <f>(K77-J77)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N77" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="30" customFormat="1">
+      <c r="B78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" s="30" customFormat="1">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="30">
-        <v>0</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>1</v>
       </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
-      <c r="A78" s="50" t="b">
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="1:17" s="50" customFormat="1">
+      <c r="A81" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B81" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E81" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
-      <c r="B80" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>759</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="45">
-        <v>-60</v>
-      </c>
-      <c r="K80" s="45">
-        <v>60</v>
-      </c>
-      <c r="L80" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="45">
-        <f>(K80-J80)/6</f>
-        <v>20</v>
-      </c>
-      <c r="N80" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9171,17 +9179,20 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9190,31 +9201,43 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="40"/>
+    <row r="83" spans="1:17" s="43" customFormat="1">
+      <c r="B83" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>759</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="43">
+        <v>0</v>
+      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="45">
+        <v>-60</v>
+      </c>
+      <c r="K83" s="45">
+        <v>60</v>
+      </c>
+      <c r="L83" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="45">
+        <f>(K83-J83)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N83" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="30"/>
@@ -9222,18 +9245,18 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
-        <v>53</v>
+      <c r="D84" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30" t="b">
-        <v>1</v>
+      <c r="H84" s="30">
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9249,17 +9272,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9275,13 +9298,13 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
@@ -9301,16 +9324,16 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30">
+      <c r="H87" s="30" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
@@ -9320,22 +9343,31 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
-      <c r="A88" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="88" spans="1:17">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9344,20 +9376,17 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" s="30"/>
-      <c r="H89" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>83</v>
+      <c r="H89" s="30">
+        <v>0</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9366,186 +9395,184 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
-      <c r="B90" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>777</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H90" s="43">
-        <v>0</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="45">
-        <v>-30</v>
-      </c>
-      <c r="K90" s="45">
-        <v>30</v>
-      </c>
-      <c r="L90" s="45">
-        <v>0</v>
-      </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
-        <v>10</v>
-      </c>
-      <c r="N90" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="43" t="s">
-        <v>753</v>
-      </c>
+    <row r="90" spans="1:17">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>778</v>
+        <v>327</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>779</v>
+        <v>328</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>779</v>
+        <v>328</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" s="43" customFormat="1">
+      <c r="B93" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D93" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="43">
+        <v>0</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K93" s="45">
+        <v>30</v>
+      </c>
+      <c r="L93" s="45">
+        <v>0</v>
+      </c>
+      <c r="M93" s="45">
+        <f>(K93-J93)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N93" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="50" customFormat="1">
+      <c r="A94" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>778</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>779</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="43" customFormat="1">
+      <c r="B95" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>780</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F95" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H92" s="43">
-        <v>0</v>
-      </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45">
+      <c r="H95" s="43">
+        <v>0</v>
+      </c>
+      <c r="I95" s="46"/>
+      <c r="J95" s="45">
         <v>-50</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K95" s="45">
         <v>100</v>
       </c>
-      <c r="L92" s="45">
-        <v>0</v>
-      </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="L95" s="45">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>25</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
-      <c r="A93" s="50" t="b">
+    <row r="96" spans="1:17" s="50" customFormat="1">
+      <c r="A96" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B96" s="50" t="s">
         <v>781</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C96" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D96" s="50" t="s">
         <v>782</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E96" s="50" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
-      <c r="B94" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>783</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="43">
-        <v>0</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45">
-        <v>-50</v>
-      </c>
-      <c r="K94" s="45">
-        <v>100</v>
-      </c>
-      <c r="L94" s="45">
-        <v>0</v>
-      </c>
-      <c r="M94" s="45">
-        <f>(K94-J94)/6</f>
-        <v>25</v>
-      </c>
-      <c r="N94" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q94" s="43" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
-      <c r="A95" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="43" customFormat="1">
@@ -9553,33 +9580,30 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="43" t="s">
-        <v>785</v>
-      </c>
       <c r="H97" s="43">
         <v>0</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="45">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="K97" s="45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L97" s="45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="45">
         <f>(K97-J97)/6</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N97" s="45">
         <v>2.5</v>
@@ -9588,24 +9612,21 @@
         <v>753</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
+    <row r="98" spans="1:17" s="50" customFormat="1">
+      <c r="A98" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="30" customFormat="1">
@@ -9613,39 +9634,59 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>787</v>
+        <v>373</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F99" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="43" customFormat="1">
+      <c r="B100" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G100" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="H99" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
+      <c r="H100" s="43">
+        <v>0</v>
+      </c>
+      <c r="I100" s="46"/>
+      <c r="J100" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K100" s="45">
+        <v>80</v>
+      </c>
+      <c r="L100" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="45">
+        <f>(K100-J100)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="30" customFormat="1">
@@ -9653,15 +9694,18 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="H101" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9670,19 +9714,19 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H102" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
@@ -9690,16 +9734,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9710,153 +9754,198 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="H105" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="H106" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>793</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H107" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1">
-      <c r="A105" s="38" t="b">
+    <row r="108" spans="1:17" s="38" customFormat="1">
+      <c r="A108" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B108" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C108" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D108" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E108" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-    </row>
-    <row r="106" spans="1:17" s="43" customFormat="1">
-      <c r="B106" s="43" t="s">
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+    </row>
+    <row r="109" spans="1:17" s="43" customFormat="1">
+      <c r="B109" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D109" s="43" t="s">
         <v>803</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E109" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F109" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G106" s="43" t="s">
+      <c r="G109" s="43" t="s">
         <v>804</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H109" s="43">
         <v>1</v>
       </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="45">
+      <c r="I109" s="46"/>
+      <c r="J109" s="45">
         <v>-2</v>
       </c>
-      <c r="K106" s="45">
-        <v>2</v>
-      </c>
-      <c r="L106" s="45">
-        <v>0</v>
-      </c>
-      <c r="M106" s="45">
-        <f>(K106-J106)/6</f>
+      <c r="K109" s="45">
+        <v>2</v>
+      </c>
+      <c r="L109" s="45">
+        <v>0</v>
+      </c>
+      <c r="M109" s="45">
+        <f>(K109-J109)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N109" s="45">
         <v>1</v>
       </c>
-      <c r="Q106" s="43" t="s">
+      <c r="Q109" s="43" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1">
-      <c r="B107" s="43" t="s">
+    <row r="110" spans="1:17" s="43" customFormat="1">
+      <c r="B110" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>805</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F110" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G110" s="43" t="s">
         <v>804</v>
       </c>
-      <c r="H107" s="43">
+      <c r="H110" s="43">
         <v>-1</v>
       </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="45">
+      <c r="I110" s="46"/>
+      <c r="J110" s="45">
         <v>-2</v>
       </c>
-      <c r="K107" s="45">
-        <v>2</v>
-      </c>
-      <c r="L107" s="45">
-        <v>0</v>
-      </c>
-      <c r="M107" s="45">
-        <f>(K107-J107)/6</f>
+      <c r="K110" s="45">
+        <v>2</v>
+      </c>
+      <c r="L110" s="45">
+        <v>0</v>
+      </c>
+      <c r="M110" s="45">
+        <f>(K110-J110)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N107" s="45">
+      <c r="N110" s="45">
         <v>1</v>
       </c>
-      <c r="Q107" s="43" t="s">
+      <c r="Q110" s="43" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="B108" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="31" t="s">
+    <row r="111" spans="1:17">
+      <c r="B111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E111" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F111" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="H111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:17">
       <c r="H112" s="31"/>
@@ -10310,8 +10399,20 @@
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
+    <row r="225" spans="8:9">
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+    </row>
+    <row r="226" spans="8:9">
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+    </row>
+    <row r="227" spans="8:9">
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z151"/>
+  <autoFilter ref="A2:Z154"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>

--- a/projects/office_calibration_nsga2_14.xlsx
+++ b/projects/office_calibration_nsga2_14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6762,17 +6762,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6792,18 +6792,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6835,7 +6835,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>564</v>
       </c>
       <c r="B25" s="30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>578</v>
@@ -7168,7 +7168,7 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7274,37 +7274,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7339,7 +7339,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="18">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8804,7 +8804,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N64" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q64" s="43" t="s">
         <v>753</v>
@@ -8894,7 +8894,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N68" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q68" s="43" t="s">
         <v>753</v>
@@ -8984,7 +8984,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N72" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q72" s="43" t="s">
         <v>753</v>
@@ -10435,20 +10435,20 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10463,7 +10463,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -10858,19 +10858,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10889,7 +10889,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10910,7 +10910,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11048,7 +11048,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11113,7 +11113,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11134,7 +11134,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11226,7 +11226,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11272,7 +11272,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11295,7 +11295,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11318,7 +11318,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11337,7 +11337,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11544,7 +11544,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11563,7 +11563,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11584,7 +11584,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11787,7 +11787,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11808,7 +11808,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12011,7 +12011,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12032,7 +12032,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12235,7 +12235,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12256,7 +12256,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12281,7 +12281,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12484,7 +12484,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12505,7 +12505,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12553,7 +12553,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12668,7 +12668,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12691,7 +12691,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12737,7 +12737,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12802,7 +12802,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12894,7 +12894,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13051,7 +13051,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13076,7 +13076,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13095,7 +13095,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13116,7 +13116,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13141,7 +13141,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13160,7 +13160,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13208,7 +13208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13252,7 +13252,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13271,7 +13271,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13296,7 +13296,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13319,7 +13319,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13342,7 +13342,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13411,7 +13411,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13453,7 +13453,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13564,7 +13564,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13723,7 +13723,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13907,7 +13907,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13951,7 +13951,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13972,7 +13972,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14179,7 +14179,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14225,7 +14225,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14248,7 +14248,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14267,7 +14267,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14290,7 +14290,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14309,7 +14309,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14374,7 +14374,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14399,7 +14399,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14537,7 +14537,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14583,7 +14583,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14625,7 +14625,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14650,7 +14650,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14876,7 +14876,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14987,7 +14987,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15056,7 +15056,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15079,7 +15079,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15119,7 +15119,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15161,7 +15161,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15209,7 +15209,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15230,7 +15230,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15255,7 +15255,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15280,7 +15280,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15299,7 +15299,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15324,7 +15324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15416,7 +15416,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15462,7 +15462,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15552,7 +15552,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15667,7 +15667,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15736,7 +15736,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15755,7 +15755,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15776,7 +15776,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15822,7 +15822,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15868,7 +15868,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16075,7 +16075,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16140,7 +16140,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16161,7 +16161,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16184,7 +16184,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16207,7 +16207,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16276,7 +16276,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16299,7 +16299,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16414,7 +16414,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16460,7 +16460,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16483,7 +16483,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16525,7 +16525,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16550,7 +16550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16573,7 +16573,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16661,7 +16661,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16686,7 +16686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16747,7 +16747,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16766,7 +16766,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16787,7 +16787,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16856,7 +16856,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16925,7 +16925,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16948,7 +16948,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16971,7 +16971,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17036,7 +17036,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17059,7 +17059,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17078,7 +17078,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17103,7 +17103,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17126,7 +17126,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17172,7 +17172,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17241,7 +17241,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17352,7 +17352,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17375,7 +17375,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17394,7 +17394,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17415,7 +17415,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17434,7 +17434,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17455,7 +17455,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17474,7 +17474,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17495,7 +17495,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17537,7 +17537,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17556,7 +17556,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17581,7 +17581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17627,7 +17627,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17650,7 +17650,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17719,7 +17719,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17742,7 +17742,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17784,7 +17784,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17895,7 +17895,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17941,7 +17941,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17966,7 +17966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17985,7 +17985,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18010,7 +18010,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18052,7 +18052,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18073,7 +18073,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18094,7 +18094,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18117,7 +18117,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18136,7 +18136,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18155,7 +18155,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18180,7 +18180,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18537,7 +18537,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18900,7 +18900,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19028,14 +19028,14 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
